--- a/public/data/soil/soil_table_zimbabwe.xlsx
+++ b/public/data/soil/soil_table_zimbabwe.xlsx
@@ -93,7 +93,7 @@
     <t xml:space="preserve">source_cropland</t>
   </si>
   <si>
-    <t xml:space="preserve">cropland data from Geosurvey: https://geosurvey.qed.ai/about/</t>
+    <t xml:space="preserve">cropland data from MapSPAM: https://mapspam.info/</t>
   </si>
   <si>
     <t xml:space="preserve">source_ruralpop</t>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>14354.6</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -929,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>18.925</v>
+        <v>19.803</v>
       </c>
     </row>
     <row r="3">
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1302.7</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.367</v>
+        <v>15.246</v>
       </c>
     </row>
     <row r="4">
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>3165.2</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1019,10 +1019,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>2301.9</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>11372.4</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -1031,10 +1031,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>3.982</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>271.5</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>8287.6</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1066,10 +1066,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.414</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>9.325</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1089,10 +1089,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>29803.1</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>223289.3</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>24.011</v>
+        <v>10.289</v>
       </c>
       <c r="K7" t="n">
-        <v>185.06</v>
+        <v>182.296</v>
       </c>
     </row>
     <row r="8">
@@ -1118,28 +1118,28 @@
         <v>37</v>
       </c>
       <c r="D8" t="n">
-        <v>46577.5</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>148.4</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>30952.4</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>52604.7</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>37.236</v>
+        <v>39.065</v>
       </c>
       <c r="I8" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>22.913</v>
+        <v>25.694</v>
       </c>
       <c r="K8" t="n">
-        <v>54.025</v>
+        <v>44.565</v>
       </c>
     </row>
     <row r="9">
@@ -1153,28 +1153,28 @@
         <v>38</v>
       </c>
       <c r="D9" t="n">
-        <v>25112.9</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>398.2</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>38706.5</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>201323.5</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>35.679</v>
+        <v>36.828</v>
       </c>
       <c r="I9" t="n">
-        <v>0.564</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>40.826</v>
+        <v>74.898</v>
       </c>
       <c r="K9" t="n">
-        <v>172.554</v>
+        <v>147.879</v>
       </c>
     </row>
     <row r="10">
@@ -1188,28 +1188,28 @@
         <v>39</v>
       </c>
       <c r="D10" t="n">
-        <v>522.3</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>41.6</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>960.4</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>888.9</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.464</v>
+        <v>7.531</v>
       </c>
       <c r="K10" t="n">
-        <v>0.265</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1229,10 +1229,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>12138.4</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>379214.8</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1241,10 +1241,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>4.953</v>
+        <v>1.386</v>
       </c>
       <c r="K11" t="n">
-        <v>226.366</v>
+        <v>237.338</v>
       </c>
     </row>
     <row r="12">
@@ -1258,28 +1258,28 @@
         <v>41</v>
       </c>
       <c r="D12" t="n">
-        <v>11251.7</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>22114.6</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>221602.2</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>9.556</v>
+        <v>9.834</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>18.596</v>
+        <v>16.913</v>
       </c>
       <c r="K12" t="n">
-        <v>197.922</v>
+        <v>205.793</v>
       </c>
     </row>
     <row r="13">
@@ -1293,28 +1293,28 @@
         <v>42</v>
       </c>
       <c r="D13" t="n">
-        <v>118.9</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>782.8</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>8398.9</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.504</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.126</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>8.859</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1328,28 +1328,28 @@
         <v>43</v>
       </c>
       <c r="D14" t="n">
-        <v>27720.4</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>42.2</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>38665.3</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>50337.9</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>28.91</v>
+        <v>25.394</v>
       </c>
       <c r="I14" t="n">
-        <v>0.039</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>45.677</v>
+        <v>63.418</v>
       </c>
       <c r="K14" t="n">
-        <v>60.186</v>
+        <v>54.932</v>
       </c>
     </row>
     <row r="15">
@@ -1363,28 +1363,28 @@
         <v>44</v>
       </c>
       <c r="D15" t="n">
-        <v>20840.6</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>56414.1</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>142120.5</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>12.139</v>
+        <v>19.807</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>38.233</v>
+        <v>37.247</v>
       </c>
       <c r="K15" t="n">
-        <v>60.486</v>
+        <v>63.941</v>
       </c>
     </row>
     <row r="16">
@@ -1407,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1342.4</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1419,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.148</v>
+        <v>5.926</v>
       </c>
     </row>
     <row r="17">
@@ -1439,10 +1439,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>2252.4</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>105815.3</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1451,10 +1451,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>2.346</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>97.943</v>
+        <v>95.22</v>
       </c>
     </row>
     <row r="18">
@@ -1477,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1031</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1489,7 +1489,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>208.1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>139464.7</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1521,10 +1521,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.539</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>109.431</v>
+        <v>109.699</v>
       </c>
     </row>
     <row r="20">
@@ -1544,10 +1544,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>597.6</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>129982.6</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1556,10 +1556,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1.132</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>110.74</v>
+        <v>111.159</v>
       </c>
     </row>
     <row r="21">
@@ -1579,10 +1579,10 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>11249.9</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>202168</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1591,10 +1591,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>11.398</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>177.079</v>
+        <v>185.241</v>
       </c>
     </row>
     <row r="22">
@@ -1617,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>123763.9</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>71.299</v>
+        <v>71.432</v>
       </c>
     </row>
     <row r="23">
@@ -1649,10 +1649,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>107.5</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>210155.5</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1661,10 +1661,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.195</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>194.576</v>
+        <v>202.984</v>
       </c>
     </row>
     <row r="24">
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>306.7</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>9.042</v>
       </c>
     </row>
     <row r="25">
@@ -1719,10 +1719,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>45.4</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>96512.8</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.094</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>67.511</v>
+        <v>65.622</v>
       </c>
     </row>
     <row r="26">
@@ -1754,10 +1754,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>569.3</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>119421.2</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1766,10 +1766,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1.565</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>100.468</v>
+        <v>97.15</v>
       </c>
     </row>
     <row r="27">
@@ -1789,10 +1789,10 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>39148.7</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>241543.4</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1801,10 +1801,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>16.065</v>
+        <v>10.888</v>
       </c>
       <c r="K27" t="n">
-        <v>89.526</v>
+        <v>94.784</v>
       </c>
     </row>
     <row r="28">
@@ -1824,10 +1824,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>16793</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>119382.9</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1836,10 +1836,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>21.482</v>
+        <v>10.683</v>
       </c>
       <c r="K28" t="n">
-        <v>146.101</v>
+        <v>156.777</v>
       </c>
     </row>
     <row r="29">
@@ -1859,10 +1859,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>8026.4</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>113990.9</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1871,10 +1871,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>4.74</v>
+        <v>2.118</v>
       </c>
       <c r="K29" t="n">
-        <v>60.792</v>
+        <v>66.027</v>
       </c>
     </row>
     <row r="30">
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>8379.9</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>157826.9</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1906,10 +1906,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>9.06</v>
+        <v>7.379</v>
       </c>
       <c r="K30" t="n">
-        <v>97.614</v>
+        <v>110.42</v>
       </c>
     </row>
     <row r="31">
@@ -1929,10 +1929,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>984.1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2530.5</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1941,10 +1941,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.893</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>1.907</v>
+        <v>6.35</v>
       </c>
     </row>
     <row r="32">
@@ -1964,10 +1964,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>2480.2</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>181023.6</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1976,10 +1976,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>2.59</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>120</v>
+        <v>122.986</v>
       </c>
     </row>
     <row r="33">
@@ -1993,28 +1993,28 @@
         <v>64</v>
       </c>
       <c r="D33" t="n">
-        <v>49.2</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>786.5</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>16109</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>172988.6</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.218</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>2.269</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>15.808</v>
+        <v>8.788</v>
       </c>
       <c r="K33" t="n">
-        <v>155.37</v>
+        <v>140.626</v>
       </c>
     </row>
     <row r="34">
@@ -2034,10 +2034,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>22342.6</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>181836.4</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2046,10 +2046,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>16.084</v>
+        <v>5.584</v>
       </c>
       <c r="K34" t="n">
-        <v>113.291</v>
+        <v>131.092</v>
       </c>
     </row>
     <row r="35">
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3471.5</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2104,10 +2104,10 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>37148.8</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>88721</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2116,10 +2116,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>13.92</v>
+        <v>14.181</v>
       </c>
       <c r="K36" t="n">
-        <v>72.732</v>
+        <v>82.483</v>
       </c>
     </row>
     <row r="37">
@@ -2139,10 +2139,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>3876.8</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>131790.8</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2151,10 +2151,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>3.983</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>100.302</v>
+        <v>104.427</v>
       </c>
     </row>
     <row r="38">
@@ -2174,10 +2174,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>41308.6</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>190366</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2186,10 +2186,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>14.88</v>
+        <v>14.695</v>
       </c>
       <c r="K38" t="n">
-        <v>130.296</v>
+        <v>128.931</v>
       </c>
     </row>
     <row r="39">
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2255.2</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>1.308</v>
+        <v>5.003</v>
       </c>
     </row>
     <row r="40">
@@ -2244,10 +2244,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>144.3</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>9372.6</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>16.064</v>
+        <v>14.482</v>
       </c>
     </row>
     <row r="41">
@@ -2276,25 +2276,25 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>87.4</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>6310.6</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>569225.4</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.019</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>2.679</v>
+        <v>0.429</v>
       </c>
       <c r="K41" t="n">
-        <v>292.85</v>
+        <v>308.41</v>
       </c>
     </row>
     <row r="42">
@@ -2314,10 +2314,10 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>119</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>12720.9</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2326,10 +2326,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.278</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>20.59</v>
+        <v>11.556</v>
       </c>
     </row>
     <row r="43">
@@ -2349,10 +2349,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>506.7</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>89008.6</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2361,10 +2361,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.141</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>28.516</v>
+        <v>42.365</v>
       </c>
     </row>
     <row r="44">
@@ -2384,10 +2384,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>27.4</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1104.3</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2399,7 +2399,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0.177</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="45">
@@ -2422,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1487.9</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2434,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0.183</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -2454,10 +2454,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>25417</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>266303.3</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2466,10 +2466,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>17.336</v>
+        <v>16.774</v>
       </c>
       <c r="K46" t="n">
-        <v>128.997</v>
+        <v>138.033</v>
       </c>
     </row>
     <row r="47">
@@ -2489,10 +2489,10 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>20151.2</v>
+        <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>139097.2</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2501,10 +2501,10 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>6.997</v>
+        <v>6.502</v>
       </c>
       <c r="K47" t="n">
-        <v>93.971</v>
+        <v>83.615</v>
       </c>
     </row>
     <row r="48">
@@ -2527,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>4641.3</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2539,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>2.226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2559,10 +2559,10 @@
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>9515.2</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>168587.7</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2571,10 +2571,10 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>5.267</v>
+        <v>3.383</v>
       </c>
       <c r="K49" t="n">
-        <v>91.697</v>
+        <v>97.748</v>
       </c>
     </row>
     <row r="50">
@@ -2594,10 +2594,10 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>4028.5</v>
+        <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>284991.9</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2606,10 +2606,10 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>4.626</v>
+        <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>206.769</v>
+        <v>215.231</v>
       </c>
     </row>
     <row r="51">
@@ -2629,10 +2629,10 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>29053.1</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>179325.9</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2641,10 +2641,10 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>22.44</v>
+        <v>12.655</v>
       </c>
       <c r="K51" t="n">
-        <v>118.214</v>
+        <v>133.692</v>
       </c>
     </row>
     <row r="52">
@@ -2664,10 +2664,10 @@
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>457.5</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>407546.9</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2676,10 +2676,10 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>0.111</v>
+        <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>232.443</v>
+        <v>240.624</v>
       </c>
     </row>
     <row r="53">
@@ -2702,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>1890.3</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2714,7 +2714,7 @@
         <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>1.553</v>
+        <v>7.762</v>
       </c>
     </row>
     <row r="54">
@@ -2734,10 +2734,10 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>22521.1</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>165412.3</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2746,10 +2746,10 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>18.858</v>
+        <v>8.965</v>
       </c>
       <c r="K54" t="n">
-        <v>125.212</v>
+        <v>137.792</v>
       </c>
     </row>
     <row r="55">
@@ -2769,10 +2769,10 @@
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>21032.5</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>326391.1</v>
+        <v>0</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2781,10 +2781,10 @@
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>10.936</v>
+        <v>3.344</v>
       </c>
       <c r="K55" t="n">
-        <v>160.929</v>
+        <v>172.938</v>
       </c>
     </row>
     <row r="56">
@@ -2804,10 +2804,10 @@
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>44647</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>237336.4</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2816,10 +2816,10 @@
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>29.367</v>
+        <v>24.182</v>
       </c>
       <c r="K56" t="n">
-        <v>152.214</v>
+        <v>146.336</v>
       </c>
     </row>
     <row r="57">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>2659.6</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2854,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>2.981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2874,10 +2874,10 @@
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>515.6</v>
+        <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>313863.2</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2886,10 +2886,10 @@
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>0.157</v>
+        <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>151.338</v>
+        <v>148.891</v>
       </c>
     </row>
     <row r="59">
@@ -2909,10 +2909,10 @@
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>29732</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>129591.1</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2921,10 +2921,10 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>26.873</v>
+        <v>14.387</v>
       </c>
       <c r="K59" t="n">
-        <v>131.834</v>
+        <v>140.703</v>
       </c>
     </row>
     <row r="60">
@@ -2944,10 +2944,10 @@
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>22199.6</v>
+        <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>251704.2</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2956,10 +2956,10 @@
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>10.274</v>
+        <v>5.72</v>
       </c>
       <c r="K60" t="n">
-        <v>92.562</v>
+        <v>113.255</v>
       </c>
     </row>
     <row r="61">
@@ -2979,10 +2979,10 @@
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>3228</v>
+        <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>157465.7</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2991,10 +2991,10 @@
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>0.641</v>
+        <v>0.337</v>
       </c>
       <c r="K61" t="n">
-        <v>56.742</v>
+        <v>58.515</v>
       </c>
     </row>
     <row r="62">
@@ -3014,10 +3014,10 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>21221.1</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>301395</v>
+        <v>0</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -3026,10 +3026,10 @@
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>3.921</v>
+        <v>4.723</v>
       </c>
       <c r="K62" t="n">
-        <v>39.39</v>
+        <v>57.454</v>
       </c>
     </row>
     <row r="63">
@@ -3052,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>5230.7</v>
+        <v>0</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -3064,7 +3064,7 @@
         <v>0</v>
       </c>
       <c r="K63" t="n">
-        <v>10.276</v>
+        <v>20.738</v>
       </c>
     </row>
     <row r="64">
@@ -3084,10 +3084,10 @@
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>19224.7</v>
+        <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>241439.3</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -3096,10 +3096,10 @@
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>7.845</v>
+        <v>6.613</v>
       </c>
       <c r="K64" t="n">
-        <v>73.728</v>
+        <v>79.796</v>
       </c>
     </row>
     <row r="65">
@@ -3119,10 +3119,10 @@
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>4930.3</v>
+        <v>0</v>
       </c>
       <c r="G65" t="n">
-        <v>204146.6</v>
+        <v>0</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3131,10 +3131,10 @@
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>3.116</v>
+        <v>0.438</v>
       </c>
       <c r="K65" t="n">
-        <v>81.298</v>
+        <v>84.68</v>
       </c>
     </row>
     <row r="66">
@@ -3154,10 +3154,10 @@
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>1992.6</v>
+        <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>184287.5</v>
+        <v>0</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3166,10 +3166,10 @@
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>87.847</v>
+        <v>92.755</v>
       </c>
     </row>
     <row r="67">
@@ -3189,10 +3189,10 @@
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>2103.2</v>
+        <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>151237.7</v>
+        <v>0</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>0.619</v>
+        <v>0</v>
       </c>
       <c r="K67" t="n">
-        <v>65.643</v>
+        <v>81.964</v>
       </c>
     </row>
     <row r="68">
@@ -3227,7 +3227,7 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>1643.9</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3239,7 +3239,7 @@
         <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>1.764</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -3262,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>311782.2</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3274,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="K69" t="n">
-        <v>63.689</v>
+        <v>65.902</v>
       </c>
     </row>
     <row r="70">
@@ -3297,7 +3297,7 @@
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>5258.9</v>
+        <v>0</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3309,7 +3309,7 @@
         <v>0</v>
       </c>
       <c r="K70" t="n">
-        <v>5.741</v>
+        <v>3.692</v>
       </c>
     </row>
     <row r="71">
@@ -3329,10 +3329,10 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>3823.4</v>
+        <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>187597.8</v>
+        <v>0</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3341,10 +3341,10 @@
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>1.179</v>
+        <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>67.151</v>
+        <v>68.758</v>
       </c>
     </row>
     <row r="72">
@@ -3364,10 +3364,10 @@
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>1625.3</v>
+        <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>287145.9</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3376,10 +3376,10 @@
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>0.378</v>
+        <v>0</v>
       </c>
       <c r="K72" t="n">
-        <v>93.95</v>
+        <v>96.413</v>
       </c>
     </row>
     <row r="73">
@@ -3402,7 +3402,7 @@
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>1309</v>
+        <v>0</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3414,7 +3414,7 @@
         <v>0</v>
       </c>
       <c r="K73" t="n">
-        <v>1.175</v>
+        <v>1.149</v>
       </c>
     </row>
     <row r="74">
@@ -3434,10 +3434,10 @@
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>4484.9</v>
+        <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>259646.2</v>
+        <v>0</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3446,10 +3446,10 @@
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>1.104</v>
+        <v>0</v>
       </c>
       <c r="K74" t="n">
-        <v>80.577</v>
+        <v>81.78</v>
       </c>
     </row>
     <row r="75">
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>880.2</v>
+        <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>171681</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3481,10 +3481,10 @@
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>0.219</v>
+        <v>0</v>
       </c>
       <c r="K75" t="n">
-        <v>55.734</v>
+        <v>54.328</v>
       </c>
     </row>
     <row r="76">
@@ -3504,10 +3504,10 @@
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>11056.5</v>
+        <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>214915.7</v>
+        <v>0</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3516,10 +3516,10 @@
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>4.577</v>
+        <v>3.159</v>
       </c>
       <c r="K76" t="n">
-        <v>69.843</v>
+        <v>67.545</v>
       </c>
     </row>
     <row r="77">
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>16.4</v>
+        <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>5961.1</v>
+        <v>0</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>0.009</v>
+        <v>0</v>
       </c>
       <c r="K77" t="n">
-        <v>7.129</v>
+        <v>9.462</v>
       </c>
     </row>
     <row r="78">
@@ -3574,10 +3574,10 @@
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>7732.8</v>
+        <v>0</v>
       </c>
       <c r="G78" t="n">
-        <v>89604.4</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3586,10 +3586,10 @@
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>3.31</v>
+        <v>3.727</v>
       </c>
       <c r="K78" t="n">
-        <v>48.967</v>
+        <v>47.874</v>
       </c>
     </row>
     <row r="79">
@@ -3609,10 +3609,10 @@
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>9693.3</v>
+        <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>169736.5</v>
+        <v>0</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3621,10 +3621,10 @@
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>4.333</v>
+        <v>1.385</v>
       </c>
       <c r="K79" t="n">
-        <v>61.614</v>
+        <v>61.301</v>
       </c>
     </row>
     <row r="80">
@@ -3644,10 +3644,10 @@
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>3138.9</v>
+        <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>283452.9</v>
+        <v>0</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3656,10 +3656,10 @@
         <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>3.806</v>
+        <v>0</v>
       </c>
       <c r="K80" t="n">
-        <v>200.787</v>
+        <v>204.203</v>
       </c>
     </row>
     <row r="81">
@@ -3679,10 +3679,10 @@
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>4861.2</v>
+        <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>464448.7</v>
+        <v>0</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3691,10 +3691,10 @@
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>3.272</v>
+        <v>0</v>
       </c>
       <c r="K81" t="n">
-        <v>264.816</v>
+        <v>261.254</v>
       </c>
     </row>
     <row r="82">
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>2275.2</v>
+        <v>0</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="K82" t="n">
-        <v>0.201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3749,10 +3749,10 @@
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>1846.5</v>
+        <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>224975</v>
+        <v>0</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3761,10 +3761,10 @@
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>0.959</v>
+        <v>0</v>
       </c>
       <c r="K83" t="n">
-        <v>76.936</v>
+        <v>72.803</v>
       </c>
     </row>
     <row r="84">
@@ -3784,10 +3784,10 @@
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>53.2</v>
+        <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>7131</v>
+        <v>0</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3799,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="K84" t="n">
-        <v>9.856</v>
+        <v>9.619</v>
       </c>
     </row>
     <row r="85">
@@ -3819,10 +3819,10 @@
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>2904.5</v>
+        <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>320128.7</v>
+        <v>0</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3831,10 +3831,10 @@
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>1.306</v>
+        <v>0</v>
       </c>
       <c r="K85" t="n">
-        <v>146.485</v>
+        <v>151.832</v>
       </c>
     </row>
     <row r="86">
@@ -3857,7 +3857,7 @@
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>3346.8</v>
+        <v>0</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="K86" t="n">
-        <v>2.572</v>
+        <v>7.52</v>
       </c>
     </row>
     <row r="87">
@@ -3889,10 +3889,10 @@
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>30093.4</v>
+        <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>183176.1</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3901,10 +3901,10 @@
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>19.518</v>
+        <v>21.219</v>
       </c>
       <c r="K87" t="n">
-        <v>138.436</v>
+        <v>139.884</v>
       </c>
     </row>
     <row r="88">
@@ -3924,10 +3924,10 @@
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>23.6</v>
+        <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>5227.3</v>
+        <v>0</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3936,10 +3936,10 @@
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="K88" t="n">
-        <v>7.203</v>
+        <v>8.827</v>
       </c>
     </row>
     <row r="89">
@@ -3959,10 +3959,10 @@
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>8162.6</v>
+        <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>132654.4</v>
+        <v>0</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3971,10 +3971,10 @@
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>6.881</v>
+        <v>2.377</v>
       </c>
       <c r="K89" t="n">
-        <v>60.107</v>
+        <v>67.068</v>
       </c>
     </row>
     <row r="90">
@@ -3994,10 +3994,10 @@
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>2876.3</v>
+        <v>0</v>
       </c>
       <c r="G90" t="n">
-        <v>2722.7</v>
+        <v>0</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4006,10 +4006,10 @@
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>6.007</v>
+        <v>9.167</v>
       </c>
       <c r="K90" t="n">
-        <v>5.477</v>
+        <v>6.13</v>
       </c>
     </row>
     <row r="91">
@@ -4029,10 +4029,10 @@
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>13488.3</v>
+        <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>97687.9</v>
+        <v>0</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4041,10 +4041,10 @@
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>6.47</v>
+        <v>3.112</v>
       </c>
       <c r="K91" t="n">
-        <v>55.141</v>
+        <v>63.252</v>
       </c>
     </row>
     <row r="92">
@@ -4067,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>2995.9</v>
+        <v>0</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="K92" t="n">
-        <v>5.224</v>
+        <v>7.415</v>
       </c>
     </row>
   </sheetData>

--- a/public/data/soil/soil_table_zimbabwe.xlsx
+++ b/public/data/soil/soil_table_zimbabwe.xlsx
@@ -39,25 +39,25 @@
     <t xml:space="preserve">name of zone in each province</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">l_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">l_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH below 5.5 and acidity saturation below 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_h_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_h_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation equal and above 10% of ECEC</t>
   </si>
   <si>
-    <t xml:space="preserve">h_ph_l_hp_qed_ha</t>
+    <t xml:space="preserve">h_ph_l_hp_spam_ha</t>
   </si>
   <si>
     <t xml:space="preserve">cropland (ha) in areas with pH equal and above 5.5 and acidity saturation below 10% of ECEC</t>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1206.5</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>873</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>572</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>3837</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>1616.5</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1089,10 +1089,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>2676.6</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>82460.1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1118,16 +1118,16 @@
         <v>37</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>3154.7</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>7499.9</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>21868.6</v>
       </c>
       <c r="H8" t="n">
         <v>39.065</v>
@@ -1153,16 +1153,16 @@
         <v>38</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>5499.7</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>16482.4</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>86190.1</v>
       </c>
       <c r="H9" t="n">
         <v>36.828</v>
@@ -1194,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1577.8</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>2855.3</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>126006</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1258,16 +1258,16 @@
         <v>41</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>2053.5</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>6667.5</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>94183.8</v>
       </c>
       <c r="H12" t="n">
         <v>9.834</v>
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1506.9</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1328,16 +1328,16 @@
         <v>43</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>4656</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>19492.5</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>15687.6</v>
       </c>
       <c r="H14" t="n">
         <v>25.394</v>
@@ -1363,16 +1363,16 @@
         <v>44</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>2007.3</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>16200.5</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>51544.4</v>
       </c>
       <c r="H15" t="n">
         <v>19.807</v>
@@ -1407,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>758.8</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1442,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>40533.7</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1477,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1441.4</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>71988.7</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>41954</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>53718.9</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1617,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>50304.9</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>101720.8</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1004.1</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1722,7 +1722,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>34004.1</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1757,7 +1757,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>48524.9</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1789,10 +1789,10 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>3304.4</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>42573.6</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1824,10 +1824,10 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>3139.6</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>50682.4</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1859,10 +1859,10 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>552</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>31962.7</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1194</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>45731</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1929,10 +1929,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>477.1</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1831.4</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1967,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>73328.9</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1999,10 +1999,10 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>2360.7</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>67535.7</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2034,10 +2034,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>2361.5</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>70329.4</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1094</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2104,10 +2104,10 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>5677</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>25210.4</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2142,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>54824.2</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2174,10 +2174,10 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>8532.9</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>51505.8</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>807.9</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>4685.9</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -2279,10 +2279,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>300.7</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>136035</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>5766.6</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2349,10 +2349,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>334</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>33810.3</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2387,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>376.9</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2422,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>1186.6</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2454,10 +2454,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>4807</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>70598</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2489,10 +2489,10 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>6757.6</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>24821.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>624.2</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2559,10 +2559,10 @@
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>785.8</v>
       </c>
       <c r="G49" t="n">
-        <v>0</v>
+        <v>43749.3</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2597,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>103326.5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2629,10 +2629,10 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>4184.7</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>85089.1</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2667,7 +2667,7 @@
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>138400</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2702,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>2389.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2734,10 +2734,10 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>4084.3</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>63073.3</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2769,10 +2769,10 @@
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>0</v>
+        <v>701.1</v>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>94221.9</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2804,10 +2804,10 @@
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>11629.3</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>87376</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>605.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2877,7 +2877,7 @@
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>76973.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2909,10 +2909,10 @@
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>11333.1</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>62869.9</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2944,10 +2944,10 @@
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>4033.6</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>54962</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2979,10 +2979,10 @@
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>332.1</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>11981.3</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -3014,10 +3014,10 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>2833.7</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>46785.5</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -3052,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>876.4</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -3084,10 +3084,10 @@
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>2108.9</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>47323.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -3119,10 +3119,10 @@
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>742.1</v>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>41330.1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -3157,7 +3157,7 @@
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>39708.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>11982.4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3227,7 +3227,7 @@
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>69.2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>27245.1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3297,7 +3297,7 @@
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>52.7</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>63716.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3367,7 +3367,7 @@
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>74301.8</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3437,7 +3437,7 @@
         <v>0</v>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>32466.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>36983.1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3504,10 +3504,10 @@
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>2181.9</v>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>46549.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>1962.3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3574,10 +3574,10 @@
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>1833.4</v>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>14013.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3609,10 +3609,10 @@
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>346.6</v>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>23646.9</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3644,10 +3644,10 @@
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>342.1</v>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>119066.2</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3682,7 +3682,7 @@
         <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>176529</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>1546.9</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3752,7 +3752,7 @@
         <v>0</v>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>21301.4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>448.7</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3822,7 +3822,7 @@
         <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>64251</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3857,7 +3857,7 @@
         <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>359.3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3889,10 +3889,10 @@
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>4956.6</v>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>44878.8</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3927,7 +3927,7 @@
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>158.1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3959,10 +3959,10 @@
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>24308</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3994,10 +3994,10 @@
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>98.1</v>
       </c>
       <c r="G90" t="n">
-        <v>0</v>
+        <v>86.7</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -4029,10 +4029,10 @@
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>3499.5</v>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>28621.3</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4067,7 +4067,7 @@
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>1268.2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
